--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H2">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I2">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J2">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.00372766666667</v>
+        <v>25.11140833333333</v>
       </c>
       <c r="N2">
-        <v>51.011183</v>
+        <v>75.334225</v>
       </c>
       <c r="O2">
-        <v>0.6620200065567142</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="P2">
-        <v>0.6620200065567141</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="Q2">
-        <v>356.1315361151569</v>
+        <v>1073.583235825539</v>
       </c>
       <c r="R2">
-        <v>3205.183825036412</v>
+        <v>9662.24912242985</v>
       </c>
       <c r="S2">
-        <v>0.4896682145803451</v>
+        <v>0.6338202047643922</v>
       </c>
       <c r="T2">
-        <v>0.4896682145803449</v>
+        <v>0.6338202047643923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H3">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I3">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J3">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.181434</v>
       </c>
       <c r="O3">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="P3">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="Q3">
-        <v>112.9697177767084</v>
+        <v>230.6005839180982</v>
       </c>
       <c r="R3">
-        <v>1016.727459990376</v>
+        <v>2075.405255262884</v>
       </c>
       <c r="S3">
-        <v>0.1553293499609623</v>
+        <v>0.1361415719251309</v>
       </c>
       <c r="T3">
-        <v>0.1553293499609623</v>
+        <v>0.136141571925131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H4">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I4">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J4">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>3.287074</v>
       </c>
       <c r="N4">
-        <v>9.861222000000001</v>
+        <v>9.861222</v>
       </c>
       <c r="O4">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579543</v>
       </c>
       <c r="P4">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579541</v>
       </c>
       <c r="Q4">
-        <v>68.84553410244534</v>
+        <v>140.5316457951747</v>
       </c>
       <c r="R4">
-        <v>619.6098069220081</v>
+        <v>1264.784812156572</v>
       </c>
       <c r="S4">
-        <v>0.09466016442552254</v>
+        <v>0.08296682878555038</v>
       </c>
       <c r="T4">
-        <v>0.09466016442552252</v>
+        <v>0.08296682878555038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.981284</v>
       </c>
       <c r="I5">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J5">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.00372766666667</v>
+        <v>25.11140833333333</v>
       </c>
       <c r="N5">
-        <v>51.011183</v>
+        <v>75.334225</v>
       </c>
       <c r="O5">
-        <v>0.6620200065567142</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="P5">
-        <v>0.6620200065567141</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="Q5">
-        <v>39.56928396655245</v>
+        <v>58.4366244049889</v>
       </c>
       <c r="R5">
-        <v>356.123555698972</v>
+        <v>525.9296196449001</v>
       </c>
       <c r="S5">
-        <v>0.05440636019905618</v>
+        <v>0.03449971274712491</v>
       </c>
       <c r="T5">
-        <v>0.05440636019905617</v>
+        <v>0.03449971274712491</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.981284</v>
       </c>
       <c r="I6">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J6">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.181434</v>
       </c>
       <c r="O6">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="P6">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="Q6">
         <v>12.55190958680622</v>
@@ -818,10 +818,10 @@
         <v>112.967186281256</v>
       </c>
       <c r="S6">
-        <v>0.01725842991606868</v>
+        <v>0.00741037456529964</v>
       </c>
       <c r="T6">
-        <v>0.01725842991606868</v>
+        <v>0.007410374565299641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.981284</v>
       </c>
       <c r="I7">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J7">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>3.287074</v>
       </c>
       <c r="N7">
-        <v>9.861222000000001</v>
+        <v>9.861222</v>
       </c>
       <c r="O7">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579543</v>
       </c>
       <c r="P7">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579541</v>
       </c>
       <c r="Q7">
-        <v>7.649332374338669</v>
+        <v>7.649332374338668</v>
       </c>
       <c r="R7">
-        <v>68.84399136904801</v>
+        <v>68.843991369048</v>
       </c>
       <c r="S7">
-        <v>0.01051756035798772</v>
+        <v>0.004515999551805684</v>
       </c>
       <c r="T7">
-        <v>0.01051756035798772</v>
+        <v>0.004515999551805683</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H8">
         <v>15.134454</v>
       </c>
       <c r="I8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.00372766666667</v>
+        <v>25.11140833333333</v>
       </c>
       <c r="N8">
-        <v>51.011183</v>
+        <v>75.334225</v>
       </c>
       <c r="O8">
-        <v>0.6620200065567142</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="P8">
-        <v>0.6620200065567141</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="Q8">
-        <v>85.780711399898</v>
+        <v>126.68248476535</v>
       </c>
       <c r="R8">
-        <v>772.026402599082</v>
+        <v>1140.14236288815</v>
       </c>
       <c r="S8">
-        <v>0.117945431777313</v>
+        <v>0.07479058516808303</v>
       </c>
       <c r="T8">
-        <v>0.117945431777313</v>
+        <v>0.07479058516808303</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H9">
         <v>15.134454</v>
       </c>
       <c r="I9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.181434</v>
       </c>
       <c r="O9">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="P9">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="Q9">
-        <v>27.210796503004</v>
+        <v>27.21079650300399</v>
       </c>
       <c r="R9">
         <v>244.897168527036</v>
       </c>
       <c r="S9">
-        <v>0.03741387883331567</v>
+        <v>0.0160646627441739</v>
       </c>
       <c r="T9">
-        <v>0.03741387883331568</v>
+        <v>0.01606466274417391</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H10">
         <v>15.134454</v>
       </c>
       <c r="I10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>3.287074</v>
       </c>
       <c r="N10">
-        <v>9.861222000000001</v>
+        <v>9.861222</v>
       </c>
       <c r="O10">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579543</v>
       </c>
       <c r="P10">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579541</v>
       </c>
       <c r="Q10">
         <v>16.582690082532</v>
@@ -1066,10 +1066,10 @@
         <v>149.244210742788</v>
       </c>
       <c r="S10">
-        <v>0.02280060994942889</v>
+        <v>0.009790059748439359</v>
       </c>
       <c r="T10">
-        <v>0.02280060994942889</v>
+        <v>0.009790059748439358</v>
       </c>
     </row>
   </sheetData>
